--- a/240826_data_preprocess/240829 sample sheet.xlsx
+++ b/240826_data_preprocess/240829 sample sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t xml:space="preserve">MID</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">sample </t>
   </si>
   <si>
+    <t xml:space="preserve">MID1</t>
+  </si>
+  <si>
     <t xml:space="preserve">m1</t>
   </si>
   <si>
@@ -43,43 +46,76 @@
     <t xml:space="preserve">m1 SI dist</t>
   </si>
   <si>
+    <t xml:space="preserve">MID2</t>
+  </si>
+  <si>
     <t xml:space="preserve">m1 SI mid</t>
   </si>
   <si>
+    <t xml:space="preserve">MID3</t>
+  </si>
+  <si>
     <t xml:space="preserve">m1 SI prox</t>
   </si>
   <si>
+    <t xml:space="preserve">MID4</t>
+  </si>
+  <si>
     <t xml:space="preserve">colon</t>
   </si>
   <si>
     <t xml:space="preserve">m1 colon</t>
   </si>
   <si>
+    <t xml:space="preserve">MID5</t>
+  </si>
+  <si>
     <t xml:space="preserve">m2</t>
   </si>
   <si>
     <t xml:space="preserve">m2 SI dist</t>
   </si>
   <si>
+    <t xml:space="preserve">MID6</t>
+  </si>
+  <si>
     <t xml:space="preserve">m2 SI mid</t>
   </si>
   <si>
+    <t xml:space="preserve">MID7</t>
+  </si>
+  <si>
     <t xml:space="preserve">m2 SI prox</t>
   </si>
   <si>
+    <t xml:space="preserve">MID8</t>
+  </si>
+  <si>
     <t xml:space="preserve">m2 colon</t>
   </si>
   <si>
+    <t xml:space="preserve">MID9</t>
+  </si>
+  <si>
     <t xml:space="preserve">m3</t>
   </si>
   <si>
     <t xml:space="preserve">m3 SI dist</t>
   </si>
   <si>
+    <t xml:space="preserve">MID10</t>
+  </si>
+  <si>
     <t xml:space="preserve">m3 SI mid</t>
   </si>
   <si>
+    <t xml:space="preserve">MID11</t>
+  </si>
+  <si>
     <t xml:space="preserve">m3 SI prox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MID13</t>
   </si>
   <si>
     <t xml:space="preserve">m3 colon</t>
@@ -187,7 +223,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -207,171 +243,171 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
